--- a/medicine/Sexualité et sexologie/Christa_Linder/Christa_Linder.xlsx
+++ b/medicine/Sexualité et sexologie/Christa_Linder/Christa_Linder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christa Linder, née à Berchtesgaden le 3 décembre 1943, est une actrice et une modèle allemande, parfois nommée Crista ou encore quand elle joue en duo avec sa sœur aînée Hannsi, Linder Sisters.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christa Linders est active au cinéma et à la télévision entre 1964 et 1982. Elle fait la couverture de quelques revues pour homme, après avoir été présentée dans Stern (le 31 octobre 1965). En août 1972, elle est le sujet d'un article de l'édition américaine de Playboy.
 Avec sa sœur aînée Hannsi elle s'était vouée au monde du spectacle en prenant des cours de danse. Elle est remarquée par le réalisateur Alfred Weidenmann. Elle prend des cours d'art dramatique à Munich. Elle devient une starlette du cinéma de genre, et joue souvent pour du cinéma softcore latino-américain et dans des comédies érotiques italiennes.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-1964 : Condamnés au péché (de), d'Alfred Weidenmann : Mi Mo, fille d'Eliese
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1964 : Condamnés au péché (de), d'Alfred Weidenmann : Mi Mo, fille d'Eliese
 1966 : Le commissaire X traque les chiens verts (Kommissar X - Jagd auf Unbekannt), de Gianfranco Parolini et Rudolf Zehetgruber : Pamela Hudson
 1966 : Ça casse à Caracas (Inferno a Caracas), de Marcello Baldi : Helen Remington
 1966 : Le Triomphe des sept desperadas (7 donne per una strage), de Gianfranco Parolini : Bridget
@@ -584,9 +603,43 @@
 1976 : L'Emprise des caresses, de Mac Ahlberg : Anita
 1978 : La Fureur du danger (Hooper), de Hal Needham : actrice
 1978 : La hora del jaguar, regia di Alfredo B. Crevenna
-1980 : Mírame con ojos pornográficos, de Luis María Delgado (it)
-Télévision
-1966 : Die Bräute meiner Söhne, série télévisée, un épisode
+1980 : Mírame con ojos pornográficos, de Luis María Delgado (it)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christa_Linder</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christa_Linder</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie partielle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1966 : Die Bräute meiner Söhne, série télévisée, un épisode
 1966 : Commando du désert (The Rat Patrol), série télévisée, épisode 1.2 La vie contre la mort (The Life Against Death Raid)
 1972 : Tatort, série télévisée, épisode Kressin und der Mann mit dem gelben Koffer : amie de Kressin
 1973 : Tegtmeiers Reisen, série télévisée, épisode Mit Burnus und Backschisch
